--- a/dados/used_cities.xlsx
+++ b/dados/used_cities.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bibliotecas\Documents\IC\Progs\dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F9F5691A-4B1B-4725-A0F3-D0FE082ABF3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72354A73-A183-4E64-9C76-E65761BAF9A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2D83E0C9-F4C7-4A0A-AAD6-F11F5FE8B04C}"/>
+    <workbookView xWindow="5790" yWindow="6150" windowWidth="14355" windowHeight="7965" xr2:uid="{2D83E0C9-F4C7-4A0A-AAD6-F11F5FE8B04C}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -37,43 +37,43 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
-    <t>Rio Verde</t>
-  </si>
-  <si>
-    <t>Jataí</t>
-  </si>
-  <si>
-    <t>Cristalina</t>
-  </si>
-  <si>
-    <t>Montividiu</t>
-  </si>
-  <si>
-    <t>Paraúna</t>
-  </si>
-  <si>
-    <t>Chapadão do Céu</t>
-  </si>
-  <si>
-    <t>Catalão</t>
-  </si>
-  <si>
-    <t>Caiapônia</t>
-  </si>
-  <si>
-    <t>Mineiros</t>
-  </si>
-  <si>
-    <t>Ipameri</t>
-  </si>
-  <si>
-    <t>Goiatuba</t>
-  </si>
-  <si>
-    <t>Silvânia</t>
-  </si>
-  <si>
-    <t>Piracanjuba</t>
+    <t>Brasil, Unidade da Federação e Município</t>
+  </si>
+  <si>
+    <t>SANTOS, SP, Brazil</t>
+  </si>
+  <si>
+    <t>VITÓRIA, ES, Brazil</t>
+  </si>
+  <si>
+    <t>SÃO LUIZ, MA, Brazil</t>
+  </si>
+  <si>
+    <t>ILHÉUS, BA, Brazil</t>
+  </si>
+  <si>
+    <t>SALVADOR, BA, Brazil</t>
+  </si>
+  <si>
+    <t>RIO GRANDE, RS, Brazil</t>
+  </si>
+  <si>
+    <t>SÃO FRANCISCO DO SUL, SC, Brazil</t>
+  </si>
+  <si>
+    <t>BARCARENA, PA, Brazil</t>
+  </si>
+  <si>
+    <t>SANTAREM, PA, Brazil</t>
+  </si>
+  <si>
+    <t>ITACOATIARA, AM, Brazil</t>
+  </si>
+  <si>
+    <t>PARANAGUA, PR, Brazil</t>
+  </si>
+  <si>
+    <t>IMBITUBA, SC, Brazil</t>
   </si>
 </sst>
 </file>
@@ -427,13 +427,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{513E27D1-2075-46FC-8139-044B7EFC1EA9}">
   <dimension ref="A1:A13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -463,22 +463,22 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
@@ -488,12 +488,12 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
@@ -503,5 +503,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>